--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>803263.5662256033</v>
+        <v>835178.7294903619</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484441</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7467331.905363169</v>
+        <v>7498897.564205477</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>251.2961070960068</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45.79447983269982</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>63.91879806533785</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>133.1633729106734</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>10.04027365719966</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>108.2746399984216</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1139,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>66.68407015800184</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>61.588283599394</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>237.2534186025707</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537887</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.9902440393952</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.08339867820243</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225734</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>166.1625368329205</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907196</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888129</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>411.0681431807224</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.22772027659471</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023035</v>
       </c>
       <c r="H22" t="n">
-        <v>18.056777352257</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>130.5953288477706</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>212.7767073753812</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>20.73696989209252</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,16 +2767,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>152.7178278970207</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2950,13 +2950,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>162.9119051916203</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>89.05336748755451</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>115.1105674615485</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>41.48733421943317</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>221.9986082496083</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011215</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819019422</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.292363805517084</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3898,13 +3898,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719938</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>7.26460296736268</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.82067209135272</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170578</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>1604.861423395239</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1166.718950578663</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>730.8091657531072</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>476.9747141409791</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>524.3060841805661</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679769</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2454.549176960779</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>2439.447117580494</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>2031.160993880147</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397437</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1085.762546272804</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>913.2008347560289</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>747.3228419575516</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>577.5648382082888</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>400.8577841700451</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>235.2665091958727</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>95.36433488624726</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>786.4454139746611</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1245.929281155574</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1688.188084313218</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.857333539</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214714</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091165</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1505.000835677683</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>1277.581164991791</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1415.517618276921</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>729.3865718653431</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>310.2441084446538</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.14417192365</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>516.14417192365</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>405.8412361038726</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>229.1341820656288</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>63.5429070914565</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1320.517839133516</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.562331003946</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>761.5359265902375</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>516.14417192365</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.14417192365</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1433.557826826175</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.455758050002</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1367.58637726485</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>933.8116324231455</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>505.9442028323533</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>104.5463714556171</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576093</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576093</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576093</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576093</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>946.8773380567056</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1401.930039355802</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925642</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859469</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1475.164772310906</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1460.062712930621</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1455.816993270678</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>780.1940995226541</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>607.6323880058791</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>607.6323880058791</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622993</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>816.3199569622993</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1258.578760119944</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.40399806131</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925642</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1776.386385451507</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1489.430877321937</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>1217.404472908229</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>972.0127182416413</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>972.0127182416413</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111516</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892153</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693461</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263767</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097163</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111506</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146348</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>385.8661312378987</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F16" t="n">
         <v>262.3272516552876</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>403.2461837293682</v>
+        <v>403.2461837293691</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687546</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777444</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284816</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5704,19 +5704,19 @@
         <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2308.274771460366</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168568</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847305</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939382</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172021</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5762,13 +5762,13 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693462</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263768</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097164</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2938.178741336459</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>965.4711828007302</v>
+        <v>784.8119928040992</v>
       </c>
       <c r="C22" t="n">
-        <v>792.9094712839551</v>
+        <v>612.2502812873244</v>
       </c>
       <c r="D22" t="n">
-        <v>627.0314784854779</v>
+        <v>446.372288488847</v>
       </c>
       <c r="E22" t="n">
-        <v>457.2734747362151</v>
+        <v>276.6142847395843</v>
       </c>
       <c r="F22" t="n">
-        <v>280.5664206979714</v>
+        <v>99.90723070134047</v>
       </c>
       <c r="G22" t="n">
-        <v>114.975145723799</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2189.083139415475</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285905</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W22" t="n">
-        <v>1630.101226872197</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.709472205609</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.289801519717</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
     <row r="23">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.8551150562605</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562605</v>
+        <v>831.0115848906044</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>665.1335920921271</v>
       </c>
       <c r="E25" t="n">
         <v>533.2191185085204</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1533.485159127727</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1288.093404461139</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.673733775248</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>889.8015492906973</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>723.92355649222</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>554.1655527429573</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>377.4584987047135</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>211.8672237305412</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2159.539202830818</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1872.583694701249</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.55729028754</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6464,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1036.216302815309</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
-        <v>863.6545912985334</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>697.7765985000561</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300484</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.454592220188</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y31" t="n">
-        <v>1228.034921534296</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="32">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1039.174348374284</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>866.6126368575092</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>700.7346440590319</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1230.992967093272</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439737</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2517.772683270128</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2239.339682523233</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1952.384174393663</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.357769979955</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.966015313368</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.441008084184</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>842.8792965674087</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.259626803171</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937639</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769889</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>451.8971520785116</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>451.8971520785116</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>275.1900980402678</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>109.5988230660955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,7 +7594,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
         <v>2292.381813755403</v>
@@ -7603,16 +7603,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
         <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798643</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.155475112751</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7655,7 +7655,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7691,7 +7691,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.781058858859</v>
+        <v>811.7546776883929</v>
       </c>
       <c r="C46" t="n">
-        <v>754.2193473420839</v>
+        <v>639.1929661716179</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731405</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238778</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856339</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7819,37 +7819,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804188</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854703</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>379.7979693824735</v>
       </c>
       <c r="M4" t="n">
-        <v>131.8679565343714</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>441.0775086564042</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,16 +8617,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>415.9850888296626</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>480.4689614154631</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457102</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807232</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10112,22 +10112,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>184.7831561774879</v>
       </c>
       <c r="C11" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>267.5985112554891</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73195639979893</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5985112554904</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.1445778789294</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>10.96843159933634</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142722</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37.46509486399952</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>56.52943299419015</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>117.7661826744367</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>122.930842842405</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5.148518520149798</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>195.0325855607193</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>52.94985625022159</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>201.9333177378961</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.0953302292544</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.8531101735157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.2385495991665</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.0797604404445</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627248</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633826.4678534655</v>
+        <v>643545.7330051528</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>633826.4678534655</v>
+        <v>646297.9699111328</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>635639.2726353329</v>
+        <v>646297.9699111328</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633187.8953155337</v>
+        <v>633187.8953155339</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633187.8953155337</v>
+        <v>633187.895315534</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633187.8953155337</v>
+        <v>633187.8953155339</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633187.8953155337</v>
+        <v>633187.8953155339</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659909.1480530715</v>
+        <v>659909.1480530717</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>335092.0749315053</v>
+      </c>
+      <c r="C2" t="n">
+        <v>335092.0749315053</v>
+      </c>
+      <c r="D2" t="n">
         <v>335092.0749315052</v>
       </c>
-      <c r="C2" t="n">
-        <v>335092.0749315052</v>
-      </c>
-      <c r="D2" t="n">
-        <v>335092.0749315051</v>
-      </c>
       <c r="E2" t="n">
-        <v>315952.4362322976</v>
+        <v>315952.4362322977</v>
       </c>
       <c r="F2" t="n">
-        <v>315952.4362322977</v>
+        <v>315952.4362322979</v>
       </c>
       <c r="G2" t="n">
         <v>315952.4362322977</v>
       </c>
       <c r="H2" t="n">
-        <v>315952.4362322979</v>
+        <v>315952.4362322978</v>
       </c>
       <c r="I2" t="n">
+        <v>329285.9900858453</v>
+      </c>
+      <c r="J2" t="n">
         <v>329285.9900858452</v>
       </c>
-      <c r="J2" t="n">
-        <v>329285.9900858453</v>
-      </c>
       <c r="K2" t="n">
-        <v>329285.9900858453</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858452</v>
@@ -26350,10 +26350,10 @@
         <v>329285.9900858452</v>
       </c>
       <c r="O2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="P2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858453</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390631</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784487</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999507</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483861</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="G4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="H4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="J4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933284</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933285</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933285</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814198</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66352.84011194273</v>
+        <v>-107737.6999304908</v>
       </c>
       <c r="C6" t="n">
-        <v>75838.46054776723</v>
+        <v>86902.36474316743</v>
       </c>
       <c r="D6" t="n">
-        <v>68985.40436264628</v>
+        <v>104242.9091170737</v>
       </c>
       <c r="E6" t="n">
-        <v>-46613.39201594342</v>
+        <v>15374.26797117231</v>
       </c>
       <c r="F6" t="n">
-        <v>177185.9017360836</v>
+        <v>177109.343181287</v>
       </c>
       <c r="G6" t="n">
-        <v>177185.9017360837</v>
+        <v>177109.3431812868</v>
       </c>
       <c r="H6" t="n">
-        <v>177185.9017360838</v>
+        <v>177109.3431812869</v>
       </c>
       <c r="I6" t="n">
-        <v>165202.3375578804</v>
+        <v>165179.1132184979</v>
       </c>
       <c r="J6" t="n">
-        <v>72552.58784572978</v>
+        <v>22935.99936572372</v>
       </c>
       <c r="K6" t="n">
-        <v>183567.05319072</v>
+        <v>169729.8202834924</v>
       </c>
       <c r="L6" t="n">
-        <v>174619.4421022097</v>
+        <v>183543.8288513373</v>
       </c>
       <c r="M6" t="n">
-        <v>-3223.933419747453</v>
+        <v>48553.88423833381</v>
       </c>
       <c r="N6" t="n">
-        <v>183567.0531907199</v>
+        <v>183543.8288513372</v>
       </c>
       <c r="O6" t="n">
-        <v>183567.0531907198</v>
+        <v>183543.8288513373</v>
       </c>
       <c r="P6" t="n">
-        <v>183567.0531907198</v>
+        <v>183543.8288513373</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>178.1408902972809</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>41.97886990037159</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>271.0398895526697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>128.4628789093296</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>167.374030741004</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27859,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>219.554782853214</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.0603871400317</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804188</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854703</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>379.7979693824735</v>
       </c>
       <c r="M4" t="n">
-        <v>131.8679565343714</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>441.0775086564042</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>415.9850888296626</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,10 +35416,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>480.4689614154631</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457102</v>
+        <v>309.6062697457111</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807232</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36832,22 +36832,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512952</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
